--- a/doc/DIBA-tornio.xlsx
+++ b/doc/DIBA-tornio.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\progetti\Tornio-3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\progetti\Git\lt4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2211D-669C-487F-986A-4ABF053AEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9819E9-48C0-4FE9-8A2A-AE60A15787A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="1095" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{38924D39-F5DE-4166-A7E8-AD145EE35AD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{38924D39-F5DE-4166-A7E8-AD145EE35AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Imp-Stepper" sheetId="3" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Descrizione</t>
   </si>
@@ -122,6 +123,90 @@
   </si>
   <si>
     <t>CALCOLAT</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Velocità</t>
+  </si>
+  <si>
+    <t>n/min</t>
+  </si>
+  <si>
+    <t>Impulsi Motore</t>
+  </si>
+  <si>
+    <t>Divisore Driver</t>
+  </si>
+  <si>
+    <t>Motore</t>
+  </si>
+  <si>
+    <t>Giri</t>
+  </si>
+  <si>
+    <t>Giri al</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>Vite</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Giri motore</t>
+  </si>
+  <si>
+    <t>Impulsi Giro Motore</t>
+  </si>
+  <si>
+    <t>Impulsi</t>
+  </si>
+  <si>
+    <t>mm/min</t>
+  </si>
+  <si>
+    <t>MORE NEMA 34 A 30 V CORRENTE DRIVER 3,3A</t>
+  </si>
+  <si>
+    <t>RAPPORO IMPULSI</t>
+  </si>
+  <si>
+    <t>SCALA IN CNC 200</t>
+  </si>
+  <si>
+    <t>IMPULSI</t>
+  </si>
+  <si>
+    <t>MAX SPEED</t>
+  </si>
+  <si>
+    <t>SCALA SW 800</t>
+  </si>
+  <si>
+    <t>DRIVER 8</t>
+  </si>
+  <si>
+    <t>VELOCIA 100 MM/MIN</t>
+  </si>
+  <si>
+    <t>51GIRI MOTORE IN 60 SEC</t>
+  </si>
+  <si>
+    <t>SCALA SW 1600</t>
+  </si>
+  <si>
+    <t>100GIRI MOTORE IN 60 SEC</t>
+  </si>
+  <si>
+    <t>SCALA SW 160</t>
+  </si>
+  <si>
+    <t>10GIRI MOTORE IN 60 SEC</t>
   </si>
 </sst>
 </file>
@@ -166,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +282,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -320,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +452,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +558,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1051,10 +1143,274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9D8ECF-98BC-42EB-A7C7-93886FA8FACF}">
+  <dimension ref="A2:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <f>E2*E3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f>H12/60</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <f>D13*$E$4</f>
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <f>F13/60</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <f>D14*$E$4</f>
+        <v>10000</v>
+      </c>
+      <c r="G14">
+        <f>F14/60</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47D3F4D-4106-48D7-992B-957A7B3408E9}">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
